--- a/biology/Zoologie/Aeolosaurus/Aeolosaurus.xlsx
+++ b/biology/Zoologie/Aeolosaurus/Aeolosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeolosaurus (« lézard d'Aeolus ») est un genre éteint de dinosaures sauropodes commun dans l’hémisphère sud à la fin du Crétacé supérieur (Campanien moyen à Maastrichtien inférieur), soit il y a environ entre 80 et 70 Ma (millions d'années). Il ressemblait au titanosaure, mais avait de longues vertèbres caudales et une épine recourbée vers l’avant[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeolosaurus (« lézard d'Aeolus ») est un genre éteint de dinosaures sauropodes commun dans l’hémisphère sud à la fin du Crétacé supérieur (Campanien moyen à Maastrichtien inférieur), soit il y a environ entre 80 et 70 Ma (millions d'années). Il ressemblait au titanosaure, mais avait de longues vertèbres caudales et une épine recourbée vers l’avant.
 Son nom signifie « reptile d'Éole »
 Période : Crétacé (−145 Ma à −66 Ma)
 Taille : 15 m de long
@@ -516,12 +528,14 @@
           <t>Les différentes espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aeolosaurus colhuehuapensis Casal et al., 2007
-Aeolosaurus maximus Santucci &amp; Arruda-Campos, 2011, recombinée en Arrudatitan maximus (en) J. C. G. Silva Junior et al 2021[2],[3],[4].
+Aeolosaurus maximus Santucci &amp; Arruda-Campos, 2011, recombinée en Arrudatitan maximus (en) J. C. G. Silva Junior et al 2021.
 Aeolosaurus rionegrinus Powell, 1987
-L'espèce A. maximus a été recombinée en un nouveau genre : Arrudatitan maximus par J. C. G. Silva Junior et al. (2021)[2],[3],[4].
+L'espèce A. maximus a été recombinée en un nouveau genre : Arrudatitan maximus par J. C. G. Silva Junior et al. (2021).
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Restes de plusieurs individus, comprenant, notamment: vertèbres caudales, ulna, radius, métacarpiens, ischion, pubis, tibia, fibula, ostéodermes... Pour A. colhuehuapensis: 21 vertèbres caudales, et 7 hémapophyses.</t>
         </is>
